--- a/Tests/Both/baseline_both_sma_5_25_30_50_DY.xlsx
+++ b/Tests/Both/baseline_both_sma_5_25_30_50_DY.xlsx
@@ -5,28 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\Both\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74506E7-A004-46C2-98E0-7E23D462537B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B062E2BF-D48A-4F48-B5ED-D8E06D5E582D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tests" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -87,6 +93,9 @@
   <si>
     <t>0/0</t>
   </si>
+  <si>
+    <t>Short</t>
+  </si>
 </sst>
 </file>
 
@@ -121,12 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T12" sqref="A1:XFD1048576"/>
+      <selection activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,49 +482,49 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>40840</v>
+        <v>40879</v>
       </c>
       <c r="D2">
-        <v>18.86</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>40870</v>
+        <v>40879</v>
       </c>
       <c r="F2">
-        <v>18.309999999999999</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.92E-2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.92E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>999.58</v>
+        <v>992.5</v>
       </c>
       <c r="L2">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>-1.27</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>-7.6399999999999996E-2</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>0.1108</v>
+        <v>1.66E-2</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
@@ -527,49 +535,49 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>40879</v>
+        <v>40898</v>
       </c>
       <c r="D3">
-        <v>19.850000000000001</v>
+        <v>20.03</v>
       </c>
       <c r="E3" s="1">
-        <v>40896</v>
+        <v>40898</v>
       </c>
       <c r="F3">
-        <v>18.899999999999999</v>
+        <v>20.03</v>
       </c>
       <c r="G3" s="2">
-        <v>-4.7899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-47.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>-4.7899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>992.5</v>
+        <v>981.47</v>
       </c>
       <c r="L3">
-        <v>-76.650000000000006</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>-4.7899999999999998E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>4.7899999999999998E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
@@ -580,49 +588,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>40898</v>
+        <v>40982</v>
       </c>
       <c r="D4">
-        <v>20.03</v>
+        <v>22.96</v>
       </c>
       <c r="E4" s="1">
-        <v>40967</v>
+        <v>40982</v>
       </c>
       <c r="F4">
-        <v>22.07</v>
+        <v>22.96</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>99.96</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>981.47</v>
+        <v>987.28</v>
       </c>
       <c r="L4">
-        <v>23.31</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-2.4500000000000001E-2</v>
+        <v>-3.0499999999999999E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>0.1862</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
@@ -636,46 +644,46 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>40982</v>
+        <v>41012</v>
       </c>
       <c r="D5">
-        <v>22.96</v>
+        <v>21.99</v>
       </c>
       <c r="E5" s="1">
-        <v>41009</v>
+        <v>41029</v>
       </c>
       <c r="F5">
-        <v>21.98</v>
+        <v>23.39</v>
       </c>
       <c r="G5" s="2">
-        <v>-4.2700000000000002E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="H5">
-        <v>-42.14</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2">
-        <v>-4.2700000000000002E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>987.28</v>
+        <v>989.55</v>
       </c>
       <c r="L5">
-        <v>-18.829999999999998</v>
+        <v>63</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N5">
-        <v>-2.2200000000000002</v>
+        <v>5.25</v>
       </c>
       <c r="O5" s="2">
-        <v>-4.2700000000000002E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>3.7499999999999999E-2</v>
+        <v>8.8200000000000001E-2</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
@@ -686,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>41029</v>
@@ -695,40 +703,40 @@
         <v>23.39</v>
       </c>
       <c r="E6" s="1">
-        <v>41038</v>
+        <v>41029</v>
       </c>
       <c r="F6">
-        <v>22.15</v>
+        <v>23.39</v>
       </c>
       <c r="G6" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-52.08</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>982.38</v>
+        <v>1005.77</v>
       </c>
       <c r="L6">
-        <v>-70.91</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>-6.51</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>-5.9900000000000002E-2</v>
+        <v>-1.3299999999999999E-2</v>
       </c>
       <c r="P6" s="2">
-        <v>2.4400000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q6" t="s">
         <v>19</v>
@@ -739,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>41093</v>
@@ -748,40 +756,40 @@
         <v>19.510000000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>41106</v>
+        <v>41093</v>
       </c>
       <c r="F7">
-        <v>17.850000000000001</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>975.5</v>
+        <v>995.01</v>
       </c>
       <c r="L7">
-        <v>-153.91</v>
+        <v>63</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>-9.2200000000000006</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
       <c r="P7" s="2">
-        <v>6.1999999999999998E-3</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="Q7" t="s">
         <v>19</v>
@@ -792,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>41130</v>
@@ -801,40 +809,40 @@
         <v>18.05</v>
       </c>
       <c r="E8" s="1">
-        <v>41150</v>
+        <v>41130</v>
       </c>
       <c r="F8">
-        <v>15.28</v>
+        <v>18.05</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.1535</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-149.58000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>-0.1535</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>974.7</v>
+        <v>992.75</v>
       </c>
       <c r="L8">
-        <v>-303.49</v>
+        <v>63</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>-9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>-0.1535</v>
+        <v>-5.4999999999999997E-3</v>
       </c>
       <c r="P8" s="2">
-        <v>8.6999999999999994E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
@@ -845,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>41213</v>
@@ -854,40 +862,40 @@
         <v>14.24</v>
       </c>
       <c r="E9" s="1">
-        <v>41312</v>
+        <v>41213</v>
       </c>
       <c r="F9">
-        <v>20.39</v>
+        <v>14.24</v>
       </c>
       <c r="G9" s="2">
-        <v>0.43190000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>418.2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0.43190000000000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>968.32</v>
+        <v>996.8</v>
       </c>
       <c r="L9">
-        <v>114.71</v>
+        <v>63</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>-9.7999999999999997E-3</v>
+        <v>-1.7600000000000001E-2</v>
       </c>
       <c r="P9" s="2">
-        <v>0.52739999999999998</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="Q9" t="s">
         <v>19</v>
@@ -901,46 +909,46 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
+        <v>41236</v>
+      </c>
+      <c r="D10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E10" s="1">
         <v>41327</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>21.4</v>
       </c>
-      <c r="E10" s="1">
-        <v>41339</v>
-      </c>
-      <c r="F10">
-        <v>21.05</v>
-      </c>
       <c r="G10" s="2">
-        <v>-1.6400000000000001E-2</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="H10">
-        <v>-16.45</v>
+        <v>228</v>
       </c>
       <c r="I10" s="2">
-        <v>-1.6400000000000001E-2</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>1005.8</v>
+        <v>991.8</v>
       </c>
       <c r="L10">
-        <v>98.26</v>
+        <v>291</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="N10">
-        <v>-1.83</v>
+        <v>3.68</v>
       </c>
       <c r="O10" s="2">
-        <v>-7.2400000000000006E-2</v>
+        <v>-1.15E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" t="s">
         <v>19</v>
@@ -951,49 +959,49 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>41341</v>
+        <v>41327</v>
       </c>
       <c r="D11">
-        <v>21.62</v>
+        <v>21.4</v>
       </c>
       <c r="E11" s="1">
-        <v>41353</v>
+        <v>41327</v>
       </c>
       <c r="F11">
-        <v>20.399999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="G11" s="2">
-        <v>-5.6399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-56.12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>-5.6399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>994.52</v>
+        <v>1027.2</v>
       </c>
       <c r="L11">
-        <v>42.14</v>
+        <v>291</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>-6.24</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>-6.5699999999999995E-2</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="P11" s="2">
-        <v>1.4E-3</v>
+        <v>1.17E-2</v>
       </c>
       <c r="Q11" t="s">
         <v>19</v>
@@ -1004,49 +1012,49 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>41390</v>
+        <v>41341</v>
       </c>
       <c r="D12">
-        <v>19.07</v>
+        <v>21.62</v>
       </c>
       <c r="E12" s="1">
-        <v>41451</v>
+        <v>41341</v>
       </c>
       <c r="F12">
-        <v>22.69</v>
+        <v>21.62</v>
       </c>
       <c r="G12" s="2">
-        <v>0.1898</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>188.24</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0.1898</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>991.64</v>
+        <v>1016.14</v>
       </c>
       <c r="L12">
-        <v>230.38</v>
+        <v>291</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>-5.6599999999999998E-2</v>
+        <v>-1.4E-3</v>
       </c>
       <c r="P12" s="2">
-        <v>0.26740000000000003</v>
+        <v>2.87E-2</v>
       </c>
       <c r="Q12" t="s">
         <v>19</v>
@@ -1057,49 +1065,49 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>41456</v>
+        <v>41390</v>
       </c>
       <c r="D13">
-        <v>23.35</v>
+        <v>19.07</v>
       </c>
       <c r="E13" s="1">
-        <v>41505</v>
+        <v>41390</v>
       </c>
       <c r="F13">
-        <v>25.46</v>
+        <v>19.07</v>
       </c>
       <c r="G13" s="2">
-        <v>9.0399999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>90.73</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>9.0399999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>1004.05</v>
+        <v>1010.71</v>
       </c>
       <c r="L13">
-        <v>321.11</v>
+        <v>291</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>-1.03E-2</v>
+        <v>-2.8299999999999999E-2</v>
       </c>
       <c r="P13" s="2">
-        <v>0.1726</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="Q13" t="s">
         <v>19</v>
@@ -1113,46 +1121,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>41527</v>
+        <v>41418</v>
       </c>
       <c r="D14">
-        <v>26.71</v>
+        <v>22.3</v>
       </c>
       <c r="E14" s="1">
-        <v>41585</v>
+        <v>41456</v>
       </c>
       <c r="F14">
-        <v>28.54</v>
+        <v>23.35</v>
       </c>
       <c r="G14" s="2">
-        <v>6.8500000000000005E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>69.540000000000006</v>
+        <v>48.3</v>
       </c>
       <c r="I14" s="2">
-        <v>6.8500000000000005E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="J14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1014.98</v>
+        <v>1025.8</v>
       </c>
       <c r="L14">
-        <v>390.65</v>
+        <v>339.3</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N14">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="O14" s="2">
-        <v>-1.01E-2</v>
+        <v>-1.9699999999999999E-2</v>
       </c>
       <c r="P14" s="2">
-        <v>0.18870000000000001</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="Q14" t="s">
         <v>19</v>
@@ -1163,49 +1171,49 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>41647</v>
+        <v>41456</v>
       </c>
       <c r="D15">
-        <v>28.04</v>
+        <v>23.35</v>
       </c>
       <c r="E15" s="1">
-        <v>41669</v>
+        <v>41456</v>
       </c>
       <c r="F15">
-        <v>27.94</v>
+        <v>23.35</v>
       </c>
       <c r="G15" s="2">
-        <v>-3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>-3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>1037.48</v>
+        <v>1027.4000000000001</v>
       </c>
       <c r="L15">
-        <v>386.95</v>
+        <v>339.3</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>-3.8899999999999997E-2</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="P15" s="2">
-        <v>5.3900000000000003E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="Q15" t="s">
         <v>19</v>
@@ -1216,49 +1224,49 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>41697</v>
+        <v>41527</v>
       </c>
       <c r="D16">
-        <v>27.74</v>
+        <v>26.71</v>
       </c>
       <c r="E16" s="1">
-        <v>41732</v>
+        <v>41527</v>
       </c>
       <c r="F16">
-        <v>31.3</v>
+        <v>26.71</v>
       </c>
       <c r="G16" s="2">
-        <v>0.1283</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>131.72</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0.1283</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>1026.3800000000001</v>
+        <v>1014.98</v>
       </c>
       <c r="L16">
-        <v>518.66999999999996</v>
+        <v>339.3</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>5.07</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>-4.7000000000000002E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="P16" s="2">
-        <v>0.18279999999999999</v>
+        <v>1.01E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>19</v>
@@ -1269,49 +1277,49 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>41746</v>
+        <v>41647</v>
       </c>
       <c r="D17">
-        <v>32.590000000000003</v>
+        <v>28.04</v>
       </c>
       <c r="E17" s="1">
-        <v>41759</v>
+        <v>41647</v>
       </c>
       <c r="F17">
-        <v>31.4</v>
+        <v>28.04</v>
       </c>
       <c r="G17" s="2">
-        <v>-3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-38.08</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>-3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>1042.8800000000001</v>
+        <v>1009.44</v>
       </c>
       <c r="L17">
-        <v>480.59</v>
+        <v>339.3</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>-4.2300000000000004</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>-6.0100000000000001E-2</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="P17" s="2">
-        <v>4.3299999999999998E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="Q17" t="s">
         <v>19</v>
@@ -1325,46 +1333,46 @@
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>41765</v>
+        <v>41673</v>
       </c>
       <c r="D18">
-        <v>31.29</v>
+        <v>27.74</v>
       </c>
       <c r="E18" s="1">
-        <v>41768</v>
+        <v>41675</v>
       </c>
       <c r="F18">
-        <v>32.01</v>
+        <v>26.3</v>
       </c>
       <c r="G18" s="2">
-        <v>2.3E-2</v>
+        <v>-5.1900000000000002E-2</v>
       </c>
       <c r="H18">
-        <v>23.76</v>
+        <v>-53.28</v>
       </c>
       <c r="I18" s="2">
-        <v>2.3E-2</v>
+        <v>-5.1900000000000002E-2</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>1032.57</v>
+        <v>1026.3800000000001</v>
       </c>
       <c r="L18">
-        <v>504.35</v>
+        <v>286.02</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>5.94</v>
+        <v>-17.760000000000002</v>
       </c>
       <c r="O18" s="2">
-        <v>-5.7999999999999996E-3</v>
+        <v>-5.1900000000000002E-2</v>
       </c>
       <c r="P18" s="2">
-        <v>2.3E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="Q18" t="s">
         <v>19</v>
@@ -1375,49 +1383,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>41771</v>
+        <v>41697</v>
       </c>
       <c r="D19">
-        <v>32.81</v>
+        <v>27.74</v>
       </c>
       <c r="E19" s="1">
-        <v>41780</v>
+        <v>41697</v>
       </c>
       <c r="F19">
-        <v>29.36</v>
+        <v>27.74</v>
       </c>
       <c r="G19" s="2">
-        <v>-0.1052</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-110.4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.1052</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>1049.92</v>
+        <v>1026.3800000000001</v>
       </c>
       <c r="L19">
-        <v>393.95</v>
+        <v>286.02</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>-13.8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>-0.1052</v>
+        <v>-1.9099999999999999E-2</v>
       </c>
       <c r="P19" s="2">
-        <v>7.6E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="Q19" t="s">
         <v>19</v>
@@ -1431,46 +1439,46 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>41800</v>
+        <v>41712</v>
       </c>
       <c r="D20">
-        <v>32.24</v>
+        <v>31.19</v>
       </c>
       <c r="E20" s="1">
-        <v>41816</v>
+        <v>41746</v>
       </c>
       <c r="F20">
-        <v>30.61</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="G20" s="2">
-        <v>-5.0599999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="H20">
-        <v>-52.16</v>
+        <v>44.8</v>
       </c>
       <c r="I20" s="2">
-        <v>-5.0599999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="J20">
         <v>32</v>
       </c>
       <c r="K20">
-        <v>1031.68</v>
+        <v>998.08</v>
       </c>
       <c r="L20">
-        <v>341.79</v>
+        <v>330.82</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N20">
-        <v>-4.01</v>
+        <v>1.79</v>
       </c>
       <c r="O20" s="2">
-        <v>-7.5700000000000003E-2</v>
+        <v>-4.6800000000000001E-2</v>
       </c>
       <c r="P20" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="Q20" t="s">
         <v>19</v>
@@ -1481,49 +1489,49 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>41820</v>
+        <v>41746</v>
       </c>
       <c r="D21">
-        <v>31.31</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>41830</v>
+        <v>41746</v>
       </c>
       <c r="F21">
-        <v>29.57</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="G21" s="2">
-        <v>-5.5599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-57.42</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>-5.5599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>1033.23</v>
+        <v>1010.29</v>
       </c>
       <c r="L21">
-        <v>284.37</v>
+        <v>330.82</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>-7.18</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>-5.5599999999999997E-2</v>
+        <v>-6.1000000000000004E-3</v>
       </c>
       <c r="P21" s="2">
-        <v>3.4500000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="Q21" t="s">
         <v>19</v>
@@ -1534,49 +1542,49 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>41869</v>
+        <v>41765</v>
       </c>
       <c r="D22">
-        <v>29.47</v>
+        <v>31.29</v>
       </c>
       <c r="E22" s="1">
-        <v>41911</v>
+        <v>41765</v>
       </c>
       <c r="F22">
-        <v>31.24</v>
+        <v>31.29</v>
       </c>
       <c r="G22" s="2">
-        <v>6.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>60.18</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>6.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>1001.98</v>
+        <v>1032.57</v>
       </c>
       <c r="L22">
-        <v>344.55</v>
+        <v>330.82</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>-1.5599999999999999E-2</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
       <c r="P22" s="2">
-        <v>0.1479</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="Q22" t="s">
         <v>19</v>
@@ -1587,49 +1595,49 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>41941</v>
+        <v>41771</v>
       </c>
       <c r="D23">
-        <v>29.68</v>
+        <v>32.81</v>
       </c>
       <c r="E23" s="1">
-        <v>41956</v>
+        <v>41771</v>
       </c>
       <c r="F23">
-        <v>26.54</v>
+        <v>32.81</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.10580000000000001</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-106.76</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.10580000000000001</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>1009.12</v>
+        <v>1017.11</v>
       </c>
       <c r="L23">
-        <v>237.79</v>
+        <v>330.82</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>-0.1237</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="P23" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="Q23" t="s">
         <v>19</v>
@@ -1640,49 +1648,49 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>41971</v>
+        <v>41800</v>
       </c>
       <c r="D24">
-        <v>30.59</v>
+        <v>32.24</v>
       </c>
       <c r="E24" s="1">
-        <v>42019</v>
+        <v>41800</v>
       </c>
       <c r="F24">
-        <v>31.74</v>
+        <v>32.24</v>
       </c>
       <c r="G24" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>37.950000000000003</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>1009.47</v>
+        <v>1031.68</v>
       </c>
       <c r="L24">
-        <v>275.74</v>
+        <v>330.82</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>-3.9899999999999998E-2</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>0.1958</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q24" t="s">
         <v>19</v>
@@ -1693,49 +1701,49 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>42040</v>
+        <v>41820</v>
       </c>
       <c r="D25">
-        <v>35.450000000000003</v>
+        <v>31.31</v>
       </c>
       <c r="E25" s="1">
-        <v>42116</v>
+        <v>41820</v>
       </c>
       <c r="F25">
-        <v>48.32</v>
+        <v>31.31</v>
       </c>
       <c r="G25" s="2">
-        <v>0.36299999999999999</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>360.36</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0.36299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K25">
-        <v>992.6</v>
+        <v>1001.92</v>
       </c>
       <c r="L25">
-        <v>636.1</v>
+        <v>330.82</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>-1.52E-2</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>0.42399999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Q25" t="s">
         <v>19</v>
@@ -1746,49 +1754,49 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>42122</v>
+        <v>41869</v>
       </c>
       <c r="D26">
-        <v>49.03</v>
+        <v>29.47</v>
       </c>
       <c r="E26" s="1">
-        <v>42124</v>
+        <v>41869</v>
       </c>
       <c r="F26">
-        <v>45.98</v>
+        <v>29.47</v>
       </c>
       <c r="G26" s="2">
-        <v>-6.2199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-64.05</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>-6.2199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>1029.6300000000001</v>
+        <v>1031.45</v>
       </c>
       <c r="L26">
-        <v>572.04999999999995</v>
+        <v>330.82</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>-21.35</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>-6.2199999999999998E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="P26" s="2">
-        <v>1.14E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="Q26" t="s">
         <v>19</v>
@@ -1802,46 +1810,46 @@
         <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>42144</v>
+        <v>41892</v>
       </c>
       <c r="D27">
-        <v>56.58</v>
+        <v>32.85</v>
       </c>
       <c r="E27" s="1">
-        <v>42214</v>
+        <v>41933</v>
       </c>
       <c r="F27">
-        <v>65.41</v>
+        <v>28.43</v>
       </c>
       <c r="G27" s="2">
-        <v>0.15609999999999999</v>
+        <v>-0.1346</v>
       </c>
       <c r="H27">
-        <v>158.94</v>
+        <v>-137.02000000000001</v>
       </c>
       <c r="I27" s="2">
-        <v>0.15609999999999999</v>
+        <v>-0.1346</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K27">
-        <v>1018.44</v>
+        <v>1018.35</v>
       </c>
       <c r="L27">
-        <v>730.99</v>
+        <v>193.8</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N27">
-        <v>3.24</v>
+        <v>-4.57</v>
       </c>
       <c r="O27" s="2">
-        <v>-7.1900000000000006E-2</v>
+        <v>-0.24379999999999999</v>
       </c>
       <c r="P27" s="2">
-        <v>0.25130000000000002</v>
+        <v>2.98E-2</v>
       </c>
       <c r="Q27" t="s">
         <v>19</v>
@@ -1852,49 +1860,49 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>42230</v>
+        <v>41941</v>
       </c>
       <c r="D28">
-        <v>67.77</v>
+        <v>29.68</v>
       </c>
       <c r="E28" s="1">
-        <v>42240</v>
+        <v>41941</v>
       </c>
       <c r="F28">
-        <v>59.38</v>
+        <v>29.68</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.12379999999999999</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-125.85</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>-0.12379999999999999</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K28">
-        <v>1016.55</v>
+        <v>1009.12</v>
       </c>
       <c r="L28">
-        <v>605.14</v>
+        <v>193.8</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>-17.98</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>-0.12939999999999999</v>
+        <v>-1.5800000000000002E-2</v>
       </c>
       <c r="P28" s="2">
-        <v>1.37E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="Q28" t="s">
         <v>19</v>
@@ -1905,49 +1913,49 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>42244</v>
+        <v>41971</v>
       </c>
       <c r="D29">
-        <v>71.14</v>
+        <v>30.59</v>
       </c>
       <c r="E29" s="1">
-        <v>42277</v>
+        <v>41971</v>
       </c>
       <c r="F29">
-        <v>72.36</v>
+        <v>30.59</v>
       </c>
       <c r="G29" s="2">
-        <v>1.7100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>17.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>1.7100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>995.96</v>
+        <v>1009.47</v>
       </c>
       <c r="L29">
-        <v>622.22</v>
+        <v>193.8</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>-4.3299999999999998E-2</v>
+        <v>-2.12E-2</v>
       </c>
       <c r="P29" s="2">
-        <v>0.13650000000000001</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Q29" t="s">
         <v>19</v>
@@ -1961,46 +1969,46 @@
         <v>18</v>
       </c>
       <c r="C30" s="1">
-        <v>42286</v>
+        <v>41977</v>
       </c>
       <c r="D30">
-        <v>78.290000000000006</v>
+        <v>32.51</v>
       </c>
       <c r="E30" s="1">
-        <v>42293</v>
+        <v>42040</v>
       </c>
       <c r="F30">
-        <v>75.2</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="G30" s="2">
-        <v>-3.95E-2</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="H30">
-        <v>-40.17</v>
+        <v>91.14</v>
       </c>
       <c r="I30" s="2">
-        <v>-3.95E-2</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K30">
-        <v>1017.77</v>
+        <v>1007.81</v>
       </c>
       <c r="L30">
-        <v>582.04999999999995</v>
+        <v>284.94</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="N30">
-        <v>-6.7</v>
+        <v>2.12</v>
       </c>
       <c r="O30" s="2">
-        <v>-6.6900000000000001E-2</v>
+        <v>-7.0099999999999996E-2</v>
       </c>
       <c r="P30" s="2">
-        <v>1.35E-2</v>
+        <v>0.12520000000000001</v>
       </c>
       <c r="Q30" t="s">
         <v>19</v>
@@ -2011,49 +2019,49 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>42297</v>
+        <v>42040</v>
       </c>
       <c r="D31">
-        <v>78.63</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="E31" s="1">
-        <v>42347</v>
+        <v>42040</v>
       </c>
       <c r="F31">
-        <v>81.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="G31" s="2">
-        <v>3.7900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>38.74</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>3.7900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K31">
-        <v>1022.19</v>
+        <v>992.6</v>
       </c>
       <c r="L31">
-        <v>620.79</v>
+        <v>284.94</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>-7.85E-2</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="P31" s="2">
-        <v>0.155</v>
+        <v>1.52E-2</v>
       </c>
       <c r="Q31" t="s">
         <v>19</v>
@@ -2064,49 +2072,49 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>42425</v>
+        <v>42122</v>
       </c>
       <c r="D32">
-        <v>58.37</v>
+        <v>49.03</v>
       </c>
       <c r="E32" s="1">
-        <v>42585</v>
+        <v>42122</v>
       </c>
       <c r="F32">
-        <v>91.05</v>
+        <v>49.03</v>
       </c>
       <c r="G32" s="2">
-        <v>0.55989999999999995</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>588.24</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0.55989999999999995</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>1050.6600000000001</v>
+        <v>980.6</v>
       </c>
       <c r="L32">
-        <v>1209.03</v>
+        <v>284.94</v>
       </c>
       <c r="M32">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>-5.6000000000000001E-2</v>
+        <v>-8.3999999999999995E-3</v>
       </c>
       <c r="P32" s="2">
-        <v>0.66700000000000004</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="Q32" t="s">
         <v>19</v>
@@ -2117,49 +2125,49 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42144</v>
+      </c>
+      <c r="D33">
+        <v>56.58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42144</v>
+      </c>
+      <c r="F33">
+        <v>56.58</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>18</v>
       </c>
-      <c r="C33" s="1">
-        <v>42641</v>
-      </c>
-      <c r="D33">
-        <v>83.73</v>
-      </c>
-      <c r="E33" s="1">
-        <v>42642</v>
-      </c>
-      <c r="F33">
-        <v>82.099990000000005</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="H33">
-        <v>-21.19</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="J33">
-        <v>13</v>
-      </c>
       <c r="K33">
-        <v>1088.49</v>
+        <v>1018.44</v>
       </c>
       <c r="L33">
-        <v>1187.8399999999999</v>
+        <v>284.94</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>-2.7099999999999999E-2</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="P33" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="Q33" t="s">
         <v>19</v>
@@ -2170,49 +2178,49 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>42647</v>
+        <v>42230</v>
       </c>
       <c r="D34">
-        <v>85.25</v>
+        <v>67.77</v>
       </c>
       <c r="E34" s="1">
-        <v>42669</v>
+        <v>42230</v>
       </c>
       <c r="F34">
-        <v>72.5</v>
+        <v>67.77</v>
       </c>
       <c r="G34" s="2">
-        <v>-0.14960000000000001</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-165.75</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>-0.14960000000000001</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>1108.25</v>
+        <v>1016.55</v>
       </c>
       <c r="L34">
-        <v>1022.09</v>
+        <v>284.94</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>-9.75</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>-0.14960000000000001</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="P34" s="2">
-        <v>2.23E-2</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="Q34" t="s">
         <v>19</v>
@@ -2223,49 +2231,49 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>42685</v>
+        <v>42244</v>
       </c>
       <c r="D35">
-        <v>87.26</v>
+        <v>71.14</v>
       </c>
       <c r="E35" s="1">
-        <v>42702</v>
+        <v>42244</v>
       </c>
       <c r="F35">
-        <v>72.69</v>
+        <v>71.14</v>
       </c>
       <c r="G35" s="2">
-        <v>-0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-174.84</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>-0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K35">
-        <v>1047.1199999999999</v>
+        <v>995.96</v>
       </c>
       <c r="L35">
-        <v>847.25</v>
+        <v>284.94</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>-15.89</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>-0.19400000000000001</v>
+        <v>-2.07E-2</v>
       </c>
       <c r="P35" s="2">
-        <v>7.0400000000000004E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="Q35" t="s">
         <v>19</v>
@@ -2276,49 +2284,49 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>42725</v>
+        <v>42286</v>
       </c>
       <c r="D36">
-        <v>81.72</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="E36" s="1">
-        <v>42746</v>
+        <v>42286</v>
       </c>
       <c r="F36">
-        <v>79.55</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="G36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-28.21</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>13</v>
       </c>
       <c r="K36">
-        <v>1062.3599999999999</v>
+        <v>1017.77</v>
       </c>
       <c r="L36">
-        <v>819.04</v>
+        <v>284.94</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>-6.88E-2</v>
+        <v>-1.11E-2</v>
       </c>
       <c r="P36" s="2">
-        <v>3.39E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="Q36" t="s">
         <v>19</v>
@@ -2329,49 +2337,49 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>42765</v>
+        <v>42297</v>
       </c>
       <c r="D37">
-        <v>80.319999999999993</v>
+        <v>78.63</v>
       </c>
       <c r="E37" s="1">
-        <v>42772</v>
+        <v>42297</v>
       </c>
       <c r="F37">
-        <v>78</v>
+        <v>78.63</v>
       </c>
       <c r="G37" s="2">
-        <v>-2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-30.16</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>-2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>13</v>
       </c>
       <c r="K37">
-        <v>1044.1600000000001</v>
+        <v>1022.19</v>
       </c>
       <c r="L37">
-        <v>788.88</v>
+        <v>284.94</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>-5.03</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>-2.8899999999999999E-2</v>
+        <v>-1.72E-2</v>
       </c>
       <c r="P37" s="2">
-        <v>3.6499999999999998E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="Q37" t="s">
         <v>19</v>
@@ -2382,49 +2390,49 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>42781</v>
+        <v>42425</v>
       </c>
       <c r="D38">
-        <v>81.73</v>
+        <v>58.37</v>
       </c>
       <c r="E38" s="1">
-        <v>42821</v>
+        <v>42425</v>
       </c>
       <c r="F38">
-        <v>91.17</v>
+        <v>58.37</v>
       </c>
       <c r="G38" s="2">
-        <v>0.11550000000000001</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>122.72</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0.11550000000000001</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K38">
-        <v>1062.49</v>
+        <v>992.29</v>
       </c>
       <c r="L38">
-        <v>911.6</v>
+        <v>284.94</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>-5.4899999999999997E-2</v>
+        <v>-1.01E-2</v>
       </c>
       <c r="P38" s="2">
-        <v>0.20480000000000001</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="Q38" t="s">
         <v>19</v>
@@ -2438,46 +2446,46 @@
         <v>18</v>
       </c>
       <c r="C39" s="1">
-        <v>42832</v>
+        <v>42458</v>
       </c>
       <c r="D39">
-        <v>94.53</v>
+        <v>65.25</v>
       </c>
       <c r="E39" s="1">
-        <v>42878</v>
+        <v>42611</v>
       </c>
       <c r="F39">
-        <v>108.05</v>
+        <v>84.34</v>
       </c>
       <c r="G39" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="H39">
-        <v>148.72</v>
+        <v>286.35000000000002</v>
       </c>
       <c r="I39" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K39">
-        <v>1039.83</v>
+        <v>978.75</v>
       </c>
       <c r="L39">
-        <v>1060.32</v>
+        <v>571.29</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N39">
-        <v>4.6500000000000004</v>
+        <v>2.65</v>
       </c>
       <c r="O39" s="2">
-        <v>-1.72E-2</v>
+        <v>-5.5199999999999999E-2</v>
       </c>
       <c r="P39" s="2">
-        <v>0.1633</v>
+        <v>0.50880000000000003</v>
       </c>
       <c r="Q39" t="s">
         <v>19</v>
@@ -2488,49 +2496,49 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>42909</v>
+        <v>42641</v>
       </c>
       <c r="D40">
-        <v>91.55</v>
+        <v>83.73</v>
       </c>
       <c r="E40" s="1">
-        <v>42933</v>
+        <v>42641</v>
       </c>
       <c r="F40">
-        <v>88.389989999999997</v>
+        <v>83.73</v>
       </c>
       <c r="G40" s="2">
-        <v>-3.4500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>-37.92</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>-3.4500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>12</v>
       </c>
       <c r="K40">
-        <v>1098.5999999999999</v>
+        <v>1004.76</v>
       </c>
       <c r="L40">
-        <v>1022.4</v>
+        <v>571.29</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>-2.37</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>-4.5699999999999998E-2</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>2.3900000000000001E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="Q40" t="s">
         <v>19</v>
@@ -2541,49 +2549,49 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
-        <v>42944</v>
+        <v>42647</v>
       </c>
       <c r="D41">
-        <v>90.3</v>
+        <v>85.25</v>
       </c>
       <c r="E41" s="1">
-        <v>42950</v>
+        <v>42647</v>
       </c>
       <c r="F41">
-        <v>84.56</v>
+        <v>85.25</v>
       </c>
       <c r="G41" s="2">
-        <v>-6.3600000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>-68.88</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>-6.3600000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>12</v>
       </c>
       <c r="K41">
-        <v>1083.5999999999999</v>
+        <v>1023</v>
       </c>
       <c r="L41">
-        <v>953.52</v>
+        <v>571.29</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>-13.78</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>-6.3600000000000004E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="P41" s="2">
-        <v>1.7399999999999999E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="Q41" t="s">
         <v>19</v>
@@ -2594,49 +2602,49 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>42997</v>
+        <v>42685</v>
       </c>
       <c r="D42">
-        <v>80.25</v>
+        <v>87.26</v>
       </c>
       <c r="E42" s="1">
-        <v>43139</v>
+        <v>42685</v>
       </c>
       <c r="F42">
-        <v>111.5</v>
+        <v>87.26</v>
       </c>
       <c r="G42" s="2">
-        <v>0.38940000000000002</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>406.25</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0.38940000000000002</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42">
-        <v>1043.25</v>
+        <v>1047.1199999999999</v>
       </c>
       <c r="L42">
-        <v>1359.77</v>
+        <v>571.29</v>
       </c>
       <c r="M42">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>-2.0999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2">
-        <v>0.54500000000000004</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="Q42" t="s">
         <v>19</v>
@@ -2650,46 +2658,46 @@
         <v>18</v>
       </c>
       <c r="C43" s="1">
-        <v>43173</v>
+        <v>42689</v>
       </c>
       <c r="D43">
-        <v>113.71</v>
+        <v>90.61</v>
       </c>
       <c r="E43" s="1">
-        <v>43179</v>
+        <v>42699</v>
       </c>
       <c r="F43">
-        <v>109.63</v>
+        <v>75.66</v>
       </c>
       <c r="G43" s="2">
-        <v>-3.5900000000000001E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="H43">
-        <v>-36.72</v>
+        <v>-164.45</v>
       </c>
       <c r="I43" s="2">
-        <v>-3.5900000000000001E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K43">
-        <v>1023.39</v>
+        <v>996.71</v>
       </c>
       <c r="L43">
-        <v>1323.05</v>
+        <v>406.84</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N43">
-        <v>-7.34</v>
+        <v>-20.56</v>
       </c>
       <c r="O43" s="2">
-        <v>-3.6400000000000002E-2</v>
+        <v>-0.2238</v>
       </c>
       <c r="P43" s="2">
-        <v>1.7399999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="Q43" t="s">
         <v>19</v>
@@ -2700,49 +2708,49 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>43210</v>
+        <v>42725</v>
       </c>
       <c r="D44">
-        <v>104.6</v>
+        <v>81.72</v>
       </c>
       <c r="E44" s="1">
-        <v>43214</v>
+        <v>42725</v>
       </c>
       <c r="F44">
-        <v>104.99</v>
+        <v>81.72</v>
       </c>
       <c r="G44" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K44">
-        <v>1046</v>
+        <v>980.64</v>
       </c>
       <c r="L44">
-        <v>1326.95</v>
+        <v>406.84</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>-5.7000000000000002E-3</v>
+        <v>-4.0000000000000002E-4</v>
       </c>
       <c r="P44" s="2">
-        <v>2.46E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="Q44" t="s">
         <v>19</v>
@@ -2756,46 +2764,46 @@
         <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>43217</v>
+        <v>42761</v>
       </c>
       <c r="D45">
-        <v>106.65</v>
+        <v>80.19</v>
       </c>
       <c r="E45" s="1">
-        <v>43220</v>
+        <v>42765</v>
       </c>
       <c r="F45">
-        <v>103.85</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="G45" s="2">
-        <v>-2.63E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>-28</v>
+        <v>1.56</v>
       </c>
       <c r="I45" s="2">
-        <v>-2.63E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>1066.5</v>
+        <v>962.28</v>
       </c>
       <c r="L45">
-        <v>1298.95</v>
+        <v>408.4</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>-14</v>
+        <v>0.52</v>
       </c>
       <c r="O45" s="2">
-        <v>-2.63E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="P45" s="2">
-        <v>1.4800000000000001E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="Q45" t="s">
         <v>19</v>
@@ -2806,49 +2814,49 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>43229</v>
+        <v>42765</v>
       </c>
       <c r="D46">
-        <v>109.51</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="E46" s="1">
-        <v>43243</v>
+        <v>42765</v>
       </c>
       <c r="F46">
-        <v>92.03</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="G46" s="2">
-        <v>-0.15959999999999999</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-174.8</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.15959999999999999</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>1095.0999999999999</v>
+        <v>963.84</v>
       </c>
       <c r="L46">
-        <v>1124.1500000000001</v>
+        <v>408.4</v>
       </c>
       <c r="M46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>-15.89</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>-0.16889999999999999</v>
+        <v>-3.0999999999999999E-3</v>
       </c>
       <c r="P46" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="Q46" t="s">
         <v>19</v>
@@ -2859,49 +2867,49 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>43271</v>
+        <v>42781</v>
       </c>
       <c r="D47">
-        <v>99.42</v>
+        <v>81.73</v>
       </c>
       <c r="E47" s="1">
-        <v>43280</v>
+        <v>42781</v>
       </c>
       <c r="F47">
-        <v>94.52</v>
+        <v>81.73</v>
       </c>
       <c r="G47" s="2">
-        <v>-4.9299999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>-53.9</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>-4.9299999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K47">
-        <v>1093.6199999999999</v>
+        <v>980.76</v>
       </c>
       <c r="L47">
-        <v>1070.25</v>
+        <v>408.4</v>
       </c>
       <c r="M47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>-6.74</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>-6.7699999999999996E-2</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="P47" s="2">
-        <v>6.1999999999999998E-3</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="Q47" t="s">
         <v>19</v>
@@ -2915,48 +2923,737 @@
         <v>18</v>
       </c>
       <c r="C48" s="1">
+        <v>42796</v>
+      </c>
+      <c r="D48">
+        <v>97.78</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42832</v>
+      </c>
+      <c r="F48">
+        <v>94.53</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-3.32E-2</v>
+      </c>
+      <c r="H48">
+        <v>-32.5</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-3.32E-2</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>977.8</v>
+      </c>
+      <c r="L48">
+        <v>375.9</v>
+      </c>
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>-1.2</v>
+      </c>
+      <c r="O48" s="2">
+        <v>-0.1033</v>
+      </c>
+      <c r="P48" s="2">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42832</v>
+      </c>
+      <c r="D49">
+        <v>94.53</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42832</v>
+      </c>
+      <c r="F49">
+        <v>94.53</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>945.3</v>
+      </c>
+      <c r="L49">
+        <v>375.9</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="P49" s="2">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42909</v>
+      </c>
+      <c r="D50">
+        <v>91.55</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42909</v>
+      </c>
+      <c r="F50">
+        <v>91.55</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>1007.05</v>
+      </c>
+      <c r="L50">
+        <v>375.9</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="P50" s="2">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42944</v>
+      </c>
+      <c r="D51">
+        <v>90.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42944</v>
+      </c>
+      <c r="F51">
+        <v>90.3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>993.3</v>
+      </c>
+      <c r="L51">
+        <v>375.9</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>-1.7399999999999999E-2</v>
+      </c>
+      <c r="P51" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42947</v>
+      </c>
+      <c r="D52">
+        <v>90.6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42957</v>
+      </c>
+      <c r="F52">
+        <v>84.29</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-6.9599999999999995E-2</v>
+      </c>
+      <c r="H52">
+        <v>-69.41</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-6.9599999999999995E-2</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>996.6</v>
+      </c>
+      <c r="L52">
+        <v>306.49</v>
+      </c>
+      <c r="M52">
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <v>-7.71</v>
+      </c>
+      <c r="O52" s="2">
+        <v>-7.9500000000000001E-2</v>
+      </c>
+      <c r="P52" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42997</v>
+      </c>
+      <c r="D53">
+        <v>80.25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42997</v>
+      </c>
+      <c r="F53">
+        <v>80.25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>963</v>
+      </c>
+      <c r="L53">
+        <v>306.49</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="P53" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43020</v>
+      </c>
+      <c r="D54">
+        <v>83.68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43165</v>
+      </c>
+      <c r="F54">
+        <v>109.7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="H54">
+        <v>312.24</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>1004.16</v>
+      </c>
+      <c r="L54">
+        <v>618.73</v>
+      </c>
+      <c r="M54">
+        <v>99</v>
+      </c>
+      <c r="N54">
+        <v>3.15</v>
+      </c>
+      <c r="O54" s="2">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43173</v>
+      </c>
+      <c r="D55">
+        <v>113.71</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43173</v>
+      </c>
+      <c r="F55">
+        <v>113.71</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>1023.39</v>
+      </c>
+      <c r="L55">
+        <v>618.73</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>-1.7399999999999999E-2</v>
+      </c>
+      <c r="P55" s="2">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43210</v>
+      </c>
+      <c r="D56">
+        <v>104.6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43210</v>
+      </c>
+      <c r="F56">
+        <v>104.6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>1046</v>
+      </c>
+      <c r="L56">
+        <v>618.73</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="P56" s="2">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43217</v>
+      </c>
+      <c r="D57">
+        <v>106.65</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43217</v>
+      </c>
+      <c r="F57">
+        <v>106.65</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>959.85</v>
+      </c>
+      <c r="L57">
+        <v>618.73</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>-1.4800000000000001E-2</v>
+      </c>
+      <c r="P57" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43229</v>
+      </c>
+      <c r="D58">
+        <v>109.51</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43229</v>
+      </c>
+      <c r="F58">
+        <v>109.51</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>985.59</v>
+      </c>
+      <c r="L58">
+        <v>618.73</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="P58" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43271</v>
+      </c>
+      <c r="D59">
+        <v>99.42</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43271</v>
+      </c>
+      <c r="F59">
+        <v>99.42</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>994.2</v>
+      </c>
+      <c r="L59">
+        <v>618.73</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1.77E-2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
         <v>43290</v>
       </c>
-      <c r="D48">
+      <c r="D60">
         <v>99.26</v>
       </c>
-      <c r="E48" s="1">
-        <v>43305</v>
-      </c>
-      <c r="F48">
-        <v>92.21</v>
-      </c>
-      <c r="G48" s="2">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="H48">
-        <v>-77.55</v>
-      </c>
-      <c r="I48" s="2">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="J48">
+      <c r="E60" s="1">
+        <v>43290</v>
+      </c>
+      <c r="F60">
+        <v>99.26</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>992.6</v>
+      </c>
+      <c r="L60">
+        <v>618.73</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="P60" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43312</v>
+      </c>
+      <c r="D61">
+        <v>89.15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43314</v>
+      </c>
+      <c r="F61">
+        <v>88.16</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="H61">
+        <v>-10.89</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="J61">
         <v>11</v>
       </c>
-      <c r="K48">
-        <v>1091.8599999999999</v>
-      </c>
-      <c r="L48">
-        <v>992.7</v>
-      </c>
-      <c r="M48">
-        <v>12</v>
-      </c>
-      <c r="N48">
-        <v>-6.46</v>
-      </c>
-      <c r="O48" s="2">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="K61">
+        <v>980.65</v>
+      </c>
+      <c r="L61">
+        <v>607.84</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>-3.63</v>
+      </c>
+      <c r="O61" s="2">
+        <v>-4.3099999999999999E-2</v>
+      </c>
+      <c r="P61" s="2">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="Q61" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2967,26 +3664,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4959F562-266E-4941-9FFA-72E8A2696D88}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3032,37 +3719,37 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>40840</v>
+        <v>40879</v>
       </c>
       <c r="D2">
-        <v>18.86</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>40870</v>
+        <v>40879</v>
       </c>
       <c r="F2">
-        <v>18.309999999999999</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.92E-2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.92E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>999.58</v>
+        <v>992.5</v>
       </c>
       <c r="L2">
-        <v>-29.15</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3072,37 +3759,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
-        <v>40879</v>
+        <v>40898</v>
       </c>
       <c r="D3">
-        <v>19.850000000000001</v>
+        <v>20.03</v>
       </c>
       <c r="E3" s="1">
-        <v>40896</v>
+        <v>40898</v>
       </c>
       <c r="F3">
-        <v>18.899999999999999</v>
+        <v>20.03</v>
       </c>
       <c r="G3" s="2">
-        <v>-4.7899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-47.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>-4.7899999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>992.5</v>
+        <v>981.47</v>
       </c>
       <c r="L3">
-        <v>-76.650000000000006</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -3112,37 +3799,37 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>40898</v>
+        <v>40982</v>
       </c>
       <c r="D4">
-        <v>20.03</v>
+        <v>22.96</v>
       </c>
       <c r="E4" s="1">
-        <v>40967</v>
+        <v>40982</v>
       </c>
       <c r="F4">
-        <v>22.07</v>
+        <v>22.96</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>99.96</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1018</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>981.47</v>
+        <v>987.28</v>
       </c>
       <c r="L4">
-        <v>23.31</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3155,34 +3842,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>40982</v>
+        <v>41012</v>
       </c>
       <c r="D5">
-        <v>22.96</v>
+        <v>21.99</v>
       </c>
       <c r="E5" s="1">
-        <v>41009</v>
+        <v>41029</v>
       </c>
       <c r="F5">
-        <v>21.98</v>
+        <v>23.39</v>
       </c>
       <c r="G5" s="2">
-        <v>-4.2700000000000002E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="H5">
-        <v>-42.14</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2">
-        <v>-4.2700000000000002E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="J5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>987.28</v>
+        <v>989.55</v>
       </c>
       <c r="L5">
-        <v>-18.829999999999998</v>
+        <v>63</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3192,7 +3879,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>41029</v>
@@ -3201,28 +3888,28 @@
         <v>23.39</v>
       </c>
       <c r="E6" s="1">
-        <v>41038</v>
+        <v>41029</v>
       </c>
       <c r="F6">
-        <v>22.15</v>
+        <v>23.39</v>
       </c>
       <c r="G6" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-52.08</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>982.38</v>
+        <v>1005.77</v>
       </c>
       <c r="L6">
-        <v>-70.91</v>
+        <v>63</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -3232,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>41093</v>
@@ -3241,28 +3928,28 @@
         <v>19.510000000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>41106</v>
+        <v>41093</v>
       </c>
       <c r="F7">
-        <v>17.850000000000001</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>-8.5099999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>975.5</v>
+        <v>995.01</v>
       </c>
       <c r="L7">
-        <v>-153.91</v>
+        <v>63</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3272,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>41130</v>
@@ -3281,28 +3968,28 @@
         <v>18.05</v>
       </c>
       <c r="E8" s="1">
-        <v>41150</v>
+        <v>41130</v>
       </c>
       <c r="F8">
-        <v>15.28</v>
+        <v>18.05</v>
       </c>
       <c r="G8" s="2">
-        <v>-0.1535</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-149.58000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>-0.1535</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>974.7</v>
+        <v>992.75</v>
       </c>
       <c r="L8">
-        <v>-303.49</v>
+        <v>63</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3312,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>41213</v>
@@ -3321,28 +4008,28 @@
         <v>14.24</v>
       </c>
       <c r="E9" s="1">
-        <v>41312</v>
+        <v>41213</v>
       </c>
       <c r="F9">
-        <v>20.39</v>
+        <v>14.24</v>
       </c>
       <c r="G9" s="2">
-        <v>0.43190000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>418.2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0.43190000000000001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>968.32</v>
+        <v>996.8</v>
       </c>
       <c r="L9">
-        <v>114.71</v>
+        <v>63</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3355,34 +4042,34 @@
         <v>18</v>
       </c>
       <c r="C10" s="1">
+        <v>41236</v>
+      </c>
+      <c r="D10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E10" s="1">
         <v>41327</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>21.4</v>
       </c>
-      <c r="E10" s="1">
-        <v>41339</v>
-      </c>
-      <c r="F10">
-        <v>21.05</v>
-      </c>
       <c r="G10" s="2">
-        <v>-1.6400000000000001E-2</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="H10">
-        <v>-16.45</v>
+        <v>228</v>
       </c>
       <c r="I10" s="2">
-        <v>-1.6400000000000001E-2</v>
+        <v>0.22989999999999999</v>
       </c>
       <c r="J10">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>1005.8</v>
+        <v>991.8</v>
       </c>
       <c r="L10">
-        <v>98.26</v>
+        <v>291</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3392,37 +4079,37 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>41341</v>
+        <v>41327</v>
       </c>
       <c r="D11">
-        <v>21.62</v>
+        <v>21.4</v>
       </c>
       <c r="E11" s="1">
-        <v>41353</v>
+        <v>41327</v>
       </c>
       <c r="F11">
-        <v>20.399999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="G11" s="2">
-        <v>-5.6399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-56.12</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>-5.6399999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>994.52</v>
+        <v>1027.2</v>
       </c>
       <c r="L11">
-        <v>42.14</v>
+        <v>291</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3432,37 +4119,37 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>41390</v>
+        <v>41341</v>
       </c>
       <c r="D12">
-        <v>19.07</v>
+        <v>21.62</v>
       </c>
       <c r="E12" s="1">
-        <v>41451</v>
+        <v>41341</v>
       </c>
       <c r="F12">
-        <v>22.69</v>
+        <v>21.62</v>
       </c>
       <c r="G12" s="2">
-        <v>0.1898</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>188.24</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0.1898</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>991.64</v>
+        <v>1016.14</v>
       </c>
       <c r="L12">
-        <v>230.38</v>
+        <v>291</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3472,37 +4159,37 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>41456</v>
+        <v>41390</v>
       </c>
       <c r="D13">
-        <v>23.35</v>
+        <v>19.07</v>
       </c>
       <c r="E13" s="1">
-        <v>41505</v>
+        <v>41390</v>
       </c>
       <c r="F13">
-        <v>25.46</v>
+        <v>19.07</v>
       </c>
       <c r="G13" s="2">
-        <v>9.0399999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>90.73</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>9.0399999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>1004.05</v>
+        <v>1010.71</v>
       </c>
       <c r="L13">
-        <v>321.11</v>
+        <v>291</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -3515,34 +4202,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>41527</v>
+        <v>41418</v>
       </c>
       <c r="D14">
-        <v>26.71</v>
+        <v>22.3</v>
       </c>
       <c r="E14" s="1">
-        <v>41585</v>
+        <v>41456</v>
       </c>
       <c r="F14">
-        <v>28.54</v>
+        <v>23.35</v>
       </c>
       <c r="G14" s="2">
-        <v>6.8500000000000005E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>69.540000000000006</v>
+        <v>48.3</v>
       </c>
       <c r="I14" s="2">
-        <v>6.8500000000000005E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="J14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1014.98</v>
+        <v>1025.8</v>
       </c>
       <c r="L14">
-        <v>390.65</v>
+        <v>339.3</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3552,37 +4239,37 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>41647</v>
+        <v>41456</v>
       </c>
       <c r="D15">
-        <v>28.04</v>
+        <v>23.35</v>
       </c>
       <c r="E15" s="1">
-        <v>41669</v>
+        <v>41456</v>
       </c>
       <c r="F15">
-        <v>27.94</v>
+        <v>23.35</v>
       </c>
       <c r="G15" s="2">
-        <v>-3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>-3.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>1037.48</v>
+        <v>1027.4000000000001</v>
       </c>
       <c r="L15">
-        <v>386.95</v>
+        <v>339.3</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3592,37 +4279,37 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>41697</v>
+        <v>41527</v>
       </c>
       <c r="D16">
-        <v>27.74</v>
+        <v>26.71</v>
       </c>
       <c r="E16" s="1">
-        <v>41732</v>
+        <v>41527</v>
       </c>
       <c r="F16">
-        <v>31.3</v>
+        <v>26.71</v>
       </c>
       <c r="G16" s="2">
-        <v>0.1283</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>131.72</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0.1283</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>1026.3800000000001</v>
+        <v>1014.98</v>
       </c>
       <c r="L16">
-        <v>518.66999999999996</v>
+        <v>339.3</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3632,37 +4319,37 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>41746</v>
+        <v>41647</v>
       </c>
       <c r="D17">
-        <v>32.590000000000003</v>
+        <v>28.04</v>
       </c>
       <c r="E17" s="1">
-        <v>41759</v>
+        <v>41647</v>
       </c>
       <c r="F17">
-        <v>31.4</v>
+        <v>28.04</v>
       </c>
       <c r="G17" s="2">
-        <v>-3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-38.08</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>-3.6499999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>1042.8800000000001</v>
+        <v>1009.44</v>
       </c>
       <c r="L17">
-        <v>480.59</v>
+        <v>339.3</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3675,34 +4362,34 @@
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>41765</v>
+        <v>41673</v>
       </c>
       <c r="D18">
-        <v>31.29</v>
+        <v>27.74</v>
       </c>
       <c r="E18" s="1">
-        <v>41768</v>
+        <v>41675</v>
       </c>
       <c r="F18">
-        <v>32.01</v>
+        <v>26.3</v>
       </c>
       <c r="G18" s="2">
-        <v>2.3E-2</v>
+        <v>-5.1900000000000002E-2</v>
       </c>
       <c r="H18">
-        <v>23.76</v>
+        <v>-53.28</v>
       </c>
       <c r="I18" s="2">
-        <v>2.3E-2</v>
+        <v>-5.1900000000000002E-2</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>1032.57</v>
+        <v>1026.3800000000001</v>
       </c>
       <c r="L18">
-        <v>504.35</v>
+        <v>286.02</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3712,37 +4399,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>41771</v>
+        <v>41697</v>
       </c>
       <c r="D19">
-        <v>32.81</v>
+        <v>27.74</v>
       </c>
       <c r="E19" s="1">
-        <v>41780</v>
+        <v>41697</v>
       </c>
       <c r="F19">
-        <v>29.36</v>
+        <v>27.74</v>
       </c>
       <c r="G19" s="2">
-        <v>-0.1052</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-110.4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>-0.1052</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>1049.92</v>
+        <v>1026.3800000000001</v>
       </c>
       <c r="L19">
-        <v>393.95</v>
+        <v>286.02</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -3755,34 +4442,34 @@
         <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>41800</v>
+        <v>41712</v>
       </c>
       <c r="D20">
-        <v>32.24</v>
+        <v>31.19</v>
       </c>
       <c r="E20" s="1">
-        <v>41816</v>
+        <v>41746</v>
       </c>
       <c r="F20">
-        <v>30.61</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="G20" s="2">
-        <v>-5.0599999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="H20">
-        <v>-52.16</v>
+        <v>44.8</v>
       </c>
       <c r="I20" s="2">
-        <v>-5.0599999999999999E-2</v>
+        <v>4.4900000000000002E-2</v>
       </c>
       <c r="J20">
         <v>32</v>
       </c>
       <c r="K20">
-        <v>1031.68</v>
+        <v>998.08</v>
       </c>
       <c r="L20">
-        <v>341.79</v>
+        <v>330.82</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3792,37 +4479,37 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>41820</v>
+        <v>41746</v>
       </c>
       <c r="D21">
-        <v>31.31</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>41830</v>
+        <v>41746</v>
       </c>
       <c r="F21">
-        <v>29.57</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="G21" s="2">
-        <v>-5.5599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-57.42</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>-5.5599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>1033.23</v>
+        <v>1010.29</v>
       </c>
       <c r="L21">
-        <v>284.37</v>
+        <v>330.82</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3832,37 +4519,37 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>41869</v>
+        <v>41765</v>
       </c>
       <c r="D22">
-        <v>29.47</v>
+        <v>31.29</v>
       </c>
       <c r="E22" s="1">
-        <v>41911</v>
+        <v>41765</v>
       </c>
       <c r="F22">
-        <v>31.24</v>
+        <v>31.29</v>
       </c>
       <c r="G22" s="2">
-        <v>6.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>60.18</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>6.0100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>1001.98</v>
+        <v>1032.57</v>
       </c>
       <c r="L22">
-        <v>344.55</v>
+        <v>330.82</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3872,37 +4559,37 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>41941</v>
+        <v>41771</v>
       </c>
       <c r="D23">
-        <v>29.68</v>
+        <v>32.81</v>
       </c>
       <c r="E23" s="1">
-        <v>41956</v>
+        <v>41771</v>
       </c>
       <c r="F23">
-        <v>26.54</v>
+        <v>32.81</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.10580000000000001</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-106.76</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.10580000000000001</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>1009.12</v>
+        <v>1017.11</v>
       </c>
       <c r="L23">
-        <v>237.79</v>
+        <v>330.82</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3912,37 +4599,37 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>41971</v>
+        <v>41800</v>
       </c>
       <c r="D24">
-        <v>30.59</v>
+        <v>32.24</v>
       </c>
       <c r="E24" s="1">
-        <v>42019</v>
+        <v>41800</v>
       </c>
       <c r="F24">
-        <v>31.74</v>
+        <v>32.24</v>
       </c>
       <c r="G24" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>37.950000000000003</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>3.7600000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>1009.47</v>
+        <v>1031.68</v>
       </c>
       <c r="L24">
-        <v>275.74</v>
+        <v>330.82</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3952,37 +4639,37 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>42040</v>
+        <v>41820</v>
       </c>
       <c r="D25">
-        <v>35.450000000000003</v>
+        <v>31.31</v>
       </c>
       <c r="E25" s="1">
-        <v>42116</v>
+        <v>41820</v>
       </c>
       <c r="F25">
-        <v>48.32</v>
+        <v>31.31</v>
       </c>
       <c r="G25" s="2">
-        <v>0.36299999999999999</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>360.36</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0.36299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K25">
-        <v>992.6</v>
+        <v>1001.92</v>
       </c>
       <c r="L25">
-        <v>636.1</v>
+        <v>330.82</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -3992,37 +4679,37 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>42122</v>
+        <v>41869</v>
       </c>
       <c r="D26">
-        <v>49.03</v>
+        <v>29.47</v>
       </c>
       <c r="E26" s="1">
-        <v>42124</v>
+        <v>41869</v>
       </c>
       <c r="F26">
-        <v>45.98</v>
+        <v>29.47</v>
       </c>
       <c r="G26" s="2">
-        <v>-6.2199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-64.05</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>-6.2199999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>1029.6300000000001</v>
+        <v>1031.45</v>
       </c>
       <c r="L26">
-        <v>572.04999999999995</v>
+        <v>330.82</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4035,34 +4722,34 @@
         <v>18</v>
       </c>
       <c r="C27" s="1">
-        <v>42144</v>
+        <v>41892</v>
       </c>
       <c r="D27">
-        <v>56.58</v>
+        <v>32.85</v>
       </c>
       <c r="E27" s="1">
-        <v>42214</v>
+        <v>41933</v>
       </c>
       <c r="F27">
-        <v>65.41</v>
+        <v>28.43</v>
       </c>
       <c r="G27" s="2">
-        <v>0.15609999999999999</v>
+        <v>-0.1346</v>
       </c>
       <c r="H27">
-        <v>158.94</v>
+        <v>-137.02000000000001</v>
       </c>
       <c r="I27" s="2">
-        <v>0.15609999999999999</v>
+        <v>-0.1346</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K27">
-        <v>1018.44</v>
+        <v>1018.35</v>
       </c>
       <c r="L27">
-        <v>730.99</v>
+        <v>193.8</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4072,37 +4759,37 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>42230</v>
+        <v>41941</v>
       </c>
       <c r="D28">
-        <v>67.77</v>
+        <v>29.68</v>
       </c>
       <c r="E28" s="1">
-        <v>42240</v>
+        <v>41941</v>
       </c>
       <c r="F28">
-        <v>59.38</v>
+        <v>29.68</v>
       </c>
       <c r="G28" s="2">
-        <v>-0.12379999999999999</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-125.85</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>-0.12379999999999999</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K28">
-        <v>1016.55</v>
+        <v>1009.12</v>
       </c>
       <c r="L28">
-        <v>605.14</v>
+        <v>193.8</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -4112,37 +4799,37 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>42244</v>
+        <v>41971</v>
       </c>
       <c r="D29">
-        <v>71.14</v>
+        <v>30.59</v>
       </c>
       <c r="E29" s="1">
-        <v>42277</v>
+        <v>41971</v>
       </c>
       <c r="F29">
-        <v>72.36</v>
+        <v>30.59</v>
       </c>
       <c r="G29" s="2">
-        <v>1.7100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>17.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>1.7100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K29">
-        <v>995.96</v>
+        <v>1009.47</v>
       </c>
       <c r="L29">
-        <v>622.22</v>
+        <v>193.8</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -4155,34 +4842,34 @@
         <v>18</v>
       </c>
       <c r="C30" s="1">
-        <v>42286</v>
+        <v>41977</v>
       </c>
       <c r="D30">
-        <v>78.290000000000006</v>
+        <v>32.51</v>
       </c>
       <c r="E30" s="1">
-        <v>42293</v>
+        <v>42040</v>
       </c>
       <c r="F30">
-        <v>75.2</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="G30" s="2">
-        <v>-3.95E-2</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="H30">
-        <v>-40.17</v>
+        <v>91.14</v>
       </c>
       <c r="I30" s="2">
-        <v>-3.95E-2</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K30">
-        <v>1017.77</v>
+        <v>1007.81</v>
       </c>
       <c r="L30">
-        <v>582.04999999999995</v>
+        <v>284.94</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4192,37 +4879,37 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>42297</v>
+        <v>42040</v>
       </c>
       <c r="D31">
-        <v>78.63</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="E31" s="1">
-        <v>42347</v>
+        <v>42040</v>
       </c>
       <c r="F31">
-        <v>81.61</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="G31" s="2">
-        <v>3.7900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>38.74</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>3.7900000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K31">
-        <v>1022.19</v>
+        <v>992.6</v>
       </c>
       <c r="L31">
-        <v>620.79</v>
+        <v>284.94</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -4232,117 +4919,117 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>42425</v>
+        <v>42122</v>
       </c>
       <c r="D32">
-        <v>58.37</v>
+        <v>49.03</v>
       </c>
       <c r="E32" s="1">
-        <v>42585</v>
+        <v>42122</v>
       </c>
       <c r="F32">
-        <v>91.05</v>
+        <v>49.03</v>
       </c>
       <c r="G32" s="2">
-        <v>0.55989999999999995</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>588.24</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0.55989999999999995</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>1050.6600000000001</v>
+        <v>980.6</v>
       </c>
       <c r="L32">
-        <v>1209.03</v>
+        <v>284.94</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42144</v>
+      </c>
+      <c r="D33">
+        <v>56.58</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42144</v>
+      </c>
+      <c r="F33">
+        <v>56.58</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>18</v>
       </c>
-      <c r="C33" s="4">
-        <v>42641</v>
-      </c>
-      <c r="D33" s="3">
-        <v>83.73</v>
-      </c>
-      <c r="E33" s="4">
-        <v>42642</v>
-      </c>
-      <c r="F33" s="3">
-        <v>82.1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-21.19</v>
-      </c>
-      <c r="I33" s="5">
-        <v>-1.95E-2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>13</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1088.49</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1187.8399999999999</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="K33">
+        <v>1018.44</v>
+      </c>
+      <c r="L33">
+        <v>284.94</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>42647</v>
+        <v>42230</v>
       </c>
       <c r="D34">
-        <v>85.25</v>
+        <v>67.77</v>
       </c>
       <c r="E34" s="1">
-        <v>42669</v>
+        <v>42230</v>
       </c>
       <c r="F34">
-        <v>72.5</v>
+        <v>67.77</v>
       </c>
       <c r="G34" s="2">
-        <v>-0.14960000000000001</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-165.75</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>-0.14960000000000001</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K34">
-        <v>1108.25</v>
+        <v>1016.55</v>
       </c>
       <c r="L34">
-        <v>1022.09</v>
+        <v>284.94</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4352,37 +5039,37 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>42685</v>
+        <v>42244</v>
       </c>
       <c r="D35">
-        <v>87.26</v>
+        <v>71.14</v>
       </c>
       <c r="E35" s="1">
-        <v>42702</v>
+        <v>42244</v>
       </c>
       <c r="F35">
-        <v>72.69</v>
+        <v>71.14</v>
       </c>
       <c r="G35" s="2">
-        <v>-0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>-174.84</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>-0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K35">
-        <v>1047.1199999999999</v>
+        <v>995.96</v>
       </c>
       <c r="L35">
-        <v>847.25</v>
+        <v>284.94</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -4392,37 +5079,37 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>42725</v>
+        <v>42286</v>
       </c>
       <c r="D36">
-        <v>81.72</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="E36" s="1">
-        <v>42746</v>
+        <v>42286</v>
       </c>
       <c r="F36">
-        <v>79.55</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="G36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-28.21</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>-2.6599999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>13</v>
       </c>
       <c r="K36">
-        <v>1062.3599999999999</v>
+        <v>1017.77</v>
       </c>
       <c r="L36">
-        <v>819.04</v>
+        <v>284.94</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4432,37 +5119,37 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>42765</v>
+        <v>42297</v>
       </c>
       <c r="D37">
-        <v>80.319999999999993</v>
+        <v>78.63</v>
       </c>
       <c r="E37" s="1">
-        <v>42772</v>
+        <v>42297</v>
       </c>
       <c r="F37">
-        <v>78</v>
+        <v>78.63</v>
       </c>
       <c r="G37" s="2">
-        <v>-2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-30.16</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>-2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>13</v>
       </c>
       <c r="K37">
-        <v>1044.1600000000001</v>
+        <v>1022.19</v>
       </c>
       <c r="L37">
-        <v>788.88</v>
+        <v>284.94</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4472,37 +5159,37 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>42781</v>
+        <v>42425</v>
       </c>
       <c r="D38">
-        <v>81.73</v>
+        <v>58.37</v>
       </c>
       <c r="E38" s="1">
-        <v>42821</v>
+        <v>42425</v>
       </c>
       <c r="F38">
-        <v>91.17</v>
+        <v>58.37</v>
       </c>
       <c r="G38" s="2">
-        <v>0.11550000000000001</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>122.72</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>0.11550000000000001</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K38">
-        <v>1062.49</v>
+        <v>992.29</v>
       </c>
       <c r="L38">
-        <v>911.6</v>
+        <v>284.94</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -4515,34 +5202,34 @@
         <v>18</v>
       </c>
       <c r="C39" s="1">
-        <v>42832</v>
+        <v>42458</v>
       </c>
       <c r="D39">
-        <v>94.53</v>
+        <v>65.25</v>
       </c>
       <c r="E39" s="1">
-        <v>42878</v>
+        <v>42611</v>
       </c>
       <c r="F39">
-        <v>108.05</v>
+        <v>84.34</v>
       </c>
       <c r="G39" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="H39">
-        <v>148.72</v>
+        <v>286.35000000000002</v>
       </c>
       <c r="I39" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.29260000000000003</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K39">
-        <v>1039.83</v>
+        <v>978.75</v>
       </c>
       <c r="L39">
-        <v>1060.32</v>
+        <v>571.29</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -4552,37 +5239,37 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>42909</v>
+        <v>42641</v>
       </c>
       <c r="D40">
-        <v>91.55</v>
+        <v>83.73</v>
       </c>
       <c r="E40" s="1">
-        <v>42933</v>
+        <v>42641</v>
       </c>
       <c r="F40">
-        <v>88.39</v>
+        <v>83.73</v>
       </c>
       <c r="G40" s="2">
-        <v>-3.4500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>-37.92</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>-3.4500000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <v>12</v>
       </c>
       <c r="K40">
-        <v>1098.5999999999999</v>
+        <v>1004.76</v>
       </c>
       <c r="L40">
-        <v>1022.4</v>
+        <v>571.29</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -4592,37 +5279,37 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
-        <v>42944</v>
+        <v>42647</v>
       </c>
       <c r="D41">
-        <v>90.3</v>
+        <v>85.25</v>
       </c>
       <c r="E41" s="1">
-        <v>42950</v>
+        <v>42647</v>
       </c>
       <c r="F41">
-        <v>84.56</v>
+        <v>85.25</v>
       </c>
       <c r="G41" s="2">
-        <v>-6.3600000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>-68.88</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>-6.3600000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>12</v>
       </c>
       <c r="K41">
-        <v>1083.5999999999999</v>
+        <v>1023</v>
       </c>
       <c r="L41">
-        <v>953.52</v>
+        <v>571.29</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -4632,37 +5319,37 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>42997</v>
+        <v>42685</v>
       </c>
       <c r="D42">
-        <v>80.25</v>
+        <v>87.26</v>
       </c>
       <c r="E42" s="1">
-        <v>43139</v>
+        <v>42685</v>
       </c>
       <c r="F42">
-        <v>111.5</v>
+        <v>87.26</v>
       </c>
       <c r="G42" s="2">
-        <v>0.38940000000000002</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>406.25</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0.38940000000000002</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42">
-        <v>1043.25</v>
+        <v>1047.1199999999999</v>
       </c>
       <c r="L42">
-        <v>1359.77</v>
+        <v>571.29</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -4675,34 +5362,34 @@
         <v>18</v>
       </c>
       <c r="C43" s="1">
-        <v>43173</v>
+        <v>42689</v>
       </c>
       <c r="D43">
-        <v>113.71</v>
+        <v>90.61</v>
       </c>
       <c r="E43" s="1">
-        <v>43179</v>
+        <v>42699</v>
       </c>
       <c r="F43">
-        <v>109.63</v>
+        <v>75.66</v>
       </c>
       <c r="G43" s="2">
-        <v>-3.5900000000000001E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="H43">
-        <v>-36.72</v>
+        <v>-164.45</v>
       </c>
       <c r="I43" s="2">
-        <v>-3.5900000000000001E-2</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="J43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K43">
-        <v>1023.39</v>
+        <v>996.71</v>
       </c>
       <c r="L43">
-        <v>1323.05</v>
+        <v>406.84</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -4712,37 +5399,37 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>43210</v>
+        <v>42725</v>
       </c>
       <c r="D44">
-        <v>104.6</v>
+        <v>81.72</v>
       </c>
       <c r="E44" s="1">
-        <v>43214</v>
+        <v>42725</v>
       </c>
       <c r="F44">
-        <v>104.99</v>
+        <v>81.72</v>
       </c>
       <c r="G44" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K44">
-        <v>1046</v>
+        <v>980.64</v>
       </c>
       <c r="L44">
-        <v>1326.95</v>
+        <v>406.84</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4755,34 +5442,34 @@
         <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>43217</v>
+        <v>42761</v>
       </c>
       <c r="D45">
-        <v>106.65</v>
+        <v>80.19</v>
       </c>
       <c r="E45" s="1">
-        <v>43220</v>
+        <v>42765</v>
       </c>
       <c r="F45">
-        <v>103.85</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="G45" s="2">
-        <v>-2.63E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>-28</v>
+        <v>1.56</v>
       </c>
       <c r="I45" s="2">
-        <v>-2.63E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>1066.5</v>
+        <v>962.28</v>
       </c>
       <c r="L45">
-        <v>1298.95</v>
+        <v>408.4</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -4792,37 +5479,37 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>43229</v>
+        <v>42765</v>
       </c>
       <c r="D46">
-        <v>109.51</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="E46" s="1">
-        <v>43243</v>
+        <v>42765</v>
       </c>
       <c r="F46">
-        <v>92.03</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="G46" s="2">
-        <v>-0.15959999999999999</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-174.8</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.15959999999999999</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K46">
-        <v>1095.0999999999999</v>
+        <v>963.84</v>
       </c>
       <c r="L46">
-        <v>1124.1500000000001</v>
+        <v>408.4</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -4832,37 +5519,37 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>43271</v>
+        <v>42781</v>
       </c>
       <c r="D47">
-        <v>99.42</v>
+        <v>81.73</v>
       </c>
       <c r="E47" s="1">
-        <v>43280</v>
+        <v>42781</v>
       </c>
       <c r="F47">
-        <v>94.52</v>
+        <v>81.73</v>
       </c>
       <c r="G47" s="2">
-        <v>-4.9299999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>-53.9</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>-4.9299999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K47">
-        <v>1093.6199999999999</v>
+        <v>980.76</v>
       </c>
       <c r="L47">
-        <v>1070.25</v>
+        <v>408.4</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -4875,37 +5562,531 @@
         <v>18</v>
       </c>
       <c r="C48" s="1">
-        <v>43290</v>
+        <v>42796</v>
       </c>
       <c r="D48">
-        <v>99.26</v>
+        <v>97.78</v>
       </c>
       <c r="E48" s="1">
-        <v>43305</v>
+        <v>42832</v>
       </c>
       <c r="F48">
-        <v>92.21</v>
+        <v>94.53</v>
       </c>
       <c r="G48" s="2">
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.32E-2</v>
       </c>
       <c r="H48">
-        <v>-77.55</v>
+        <v>-32.5</v>
       </c>
       <c r="I48" s="2">
-        <v>-7.0999999999999994E-2</v>
+        <v>-3.32E-2</v>
       </c>
       <c r="J48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K48">
-        <v>1091.8599999999999</v>
+        <v>977.8</v>
       </c>
       <c r="L48">
-        <v>992.7</v>
+        <v>375.9</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42832</v>
+      </c>
+      <c r="D49">
+        <v>94.53</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42832</v>
+      </c>
+      <c r="F49">
+        <v>94.53</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>945.3</v>
+      </c>
+      <c r="L49">
+        <v>375.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42909</v>
+      </c>
+      <c r="D50">
+        <v>91.55</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42909</v>
+      </c>
+      <c r="F50">
+        <v>91.55</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>1007.05</v>
+      </c>
+      <c r="L50">
+        <v>375.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42944</v>
+      </c>
+      <c r="D51">
+        <v>90.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42944</v>
+      </c>
+      <c r="F51">
+        <v>90.3</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>993.3</v>
+      </c>
+      <c r="L51">
+        <v>375.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42947</v>
+      </c>
+      <c r="D52">
+        <v>90.6</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42957</v>
+      </c>
+      <c r="F52">
+        <v>84.29</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-6.9599999999999995E-2</v>
+      </c>
+      <c r="H52">
+        <v>-69.41</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-6.9599999999999995E-2</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>996.6</v>
+      </c>
+      <c r="L52">
+        <v>306.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42997</v>
+      </c>
+      <c r="D53">
+        <v>80.25</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42997</v>
+      </c>
+      <c r="F53">
+        <v>80.25</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>963</v>
+      </c>
+      <c r="L53">
+        <v>306.49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43020</v>
+      </c>
+      <c r="D54">
+        <v>83.68</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43165</v>
+      </c>
+      <c r="F54">
+        <v>109.7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="H54">
+        <v>312.24</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="J54">
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>1004.16</v>
+      </c>
+      <c r="L54">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43173</v>
+      </c>
+      <c r="D55">
+        <v>113.71</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43173</v>
+      </c>
+      <c r="F55">
+        <v>113.71</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>1023.39</v>
+      </c>
+      <c r="L55">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43210</v>
+      </c>
+      <c r="D56">
+        <v>104.6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43210</v>
+      </c>
+      <c r="F56">
+        <v>104.6</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>1046</v>
+      </c>
+      <c r="L56">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43217</v>
+      </c>
+      <c r="D57">
+        <v>106.65</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43217</v>
+      </c>
+      <c r="F57">
+        <v>106.65</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>959.85</v>
+      </c>
+      <c r="L57">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43229</v>
+      </c>
+      <c r="D58">
+        <v>109.51</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43229</v>
+      </c>
+      <c r="F58">
+        <v>109.51</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>985.59</v>
+      </c>
+      <c r="L58">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43271</v>
+      </c>
+      <c r="D59">
+        <v>99.42</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43271</v>
+      </c>
+      <c r="F59">
+        <v>99.42</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>994.2</v>
+      </c>
+      <c r="L59">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D60">
+        <v>99.26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43290</v>
+      </c>
+      <c r="F60">
+        <v>99.26</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>992.6</v>
+      </c>
+      <c r="L60">
+        <v>618.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43312</v>
+      </c>
+      <c r="D61">
+        <v>89.15</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43314</v>
+      </c>
+      <c r="F61">
+        <v>88.16</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="H61">
+        <v>-10.89</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="J61">
+        <v>11</v>
+      </c>
+      <c r="K61">
+        <v>980.65</v>
+      </c>
+      <c r="L61">
+        <v>607.84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
